--- a/Pet.xlsx
+++ b/Pet.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Role" sheetId="2" r:id="rId1"/>
     <sheet name="User" sheetId="1" r:id="rId2"/>
     <sheet name="ORDER" sheetId="3" r:id="rId3"/>
-    <sheet name="IdStatus" sheetId="16" r:id="rId4"/>
-    <sheet name="Product" sheetId="5" r:id="rId5"/>
-    <sheet name="Suplier" sheetId="9" r:id="rId6"/>
-    <sheet name="Manufacture" sheetId="8" r:id="rId7"/>
-    <sheet name="ProductName" sheetId="7" r:id="rId8"/>
-    <sheet name="Category" sheetId="6" r:id="rId9"/>
-    <sheet name="Adress" sheetId="4" r:id="rId10"/>
-    <sheet name="IdAdress" sheetId="13" r:id="rId11"/>
-    <sheet name="IdTown" sheetId="10" r:id="rId12"/>
-    <sheet name="IdStreet" sheetId="11" r:id="rId13"/>
+    <sheet name="OrderProduct" sheetId="17" r:id="rId4"/>
+    <sheet name="IdStatus" sheetId="16" r:id="rId5"/>
+    <sheet name="Product" sheetId="5" r:id="rId6"/>
+    <sheet name="Suplier" sheetId="9" r:id="rId7"/>
+    <sheet name="Manufacture" sheetId="8" r:id="rId8"/>
+    <sheet name="ProductName" sheetId="7" r:id="rId9"/>
+    <sheet name="Category" sheetId="6" r:id="rId10"/>
+    <sheet name="Adress" sheetId="4" r:id="rId11"/>
+    <sheet name="IdAdress" sheetId="13" r:id="rId12"/>
+    <sheet name="IdTown" sheetId="10" r:id="rId13"/>
+    <sheet name="IdStreet" sheetId="11" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ORDER!$A$1:$I$11</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="291">
   <si>
     <t>ФИО</t>
   </si>
@@ -889,13 +890,31 @@
   </si>
   <si>
     <t>IdStatus</t>
+  </si>
+  <si>
+    <t>PickPoint</t>
+  </si>
+  <si>
+    <t>Article</t>
+  </si>
+  <si>
+    <t>Picpoint</t>
+  </si>
+  <si>
+    <t>Fio</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>IdProduct</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -938,6 +957,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -953,7 +980,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -987,11 +1014,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1060,8 +1097,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1386,6 +1430,60 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="A2:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B2:B4">
+    <sortCondition ref="B2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView topLeftCell="B19" workbookViewId="0">
@@ -2586,7 +2684,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B37"/>
   <sheetViews>
@@ -2900,11 +2998,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
@@ -2934,7 +3032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
@@ -3207,8 +3305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:H11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3303,7 +3401,7 @@
       <c r="F3" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="27" t="s">
         <v>33</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -3363,7 +3461,7 @@
       <c r="F5" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="27" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -3393,7 +3491,7 @@
       <c r="F6" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="27" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -3557,16 +3655,21 @@
   <sortState ref="D3:H11">
     <sortCondition ref="D2"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1"/>
+    <hyperlink ref="G5" r:id="rId2"/>
+    <hyperlink ref="G6" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="A2:H11"/>
+      <selection activeCell="J11" sqref="A2:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3579,9 +3682,10 @@
     <col min="7" max="7" width="40.7109375" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="12.140625" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31.5">
+    <row r="1" spans="1:13" ht="31.5">
       <c r="A1" s="4" t="s">
         <v>69</v>
       </c>
@@ -3612,8 +3716,17 @@
       <c r="J1" s="19" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1">
+      <c r="K1" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="18" customHeight="1">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -3648,8 +3761,14 @@
       <c r="K2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75">
+      <c r="L2" t="s">
+        <v>220</v>
+      </c>
+      <c r="M2" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -3684,8 +3803,14 @@
       <c r="K3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75">
+      <c r="L3" t="s">
+        <v>202</v>
+      </c>
+      <c r="M3" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -3720,8 +3845,14 @@
       <c r="K4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75">
+      <c r="L4" t="s">
+        <v>212</v>
+      </c>
+      <c r="M4" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -3755,8 +3886,14 @@
       <c r="K5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75">
+      <c r="L5" t="s">
+        <v>190</v>
+      </c>
+      <c r="M5" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -3790,8 +3927,14 @@
       <c r="K6" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75">
+      <c r="L6" t="s">
+        <v>180</v>
+      </c>
+      <c r="M6" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -3826,8 +3969,14 @@
       <c r="K7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75">
+      <c r="L7" t="s">
+        <v>197</v>
+      </c>
+      <c r="M7" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -3862,8 +4011,14 @@
       <c r="K8" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75">
+      <c r="L8" t="s">
+        <v>173</v>
+      </c>
+      <c r="M8" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -3898,8 +4053,14 @@
       <c r="K9" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75">
+      <c r="L9" t="s">
+        <v>229</v>
+      </c>
+      <c r="M9" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -3935,8 +4096,14 @@
       <c r="K10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75">
+      <c r="L10" t="s">
+        <v>218</v>
+      </c>
+      <c r="M10" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -3971,8 +4138,97 @@
       <c r="K11" t="s">
         <v>29</v>
       </c>
+      <c r="L11" t="s">
+        <v>237</v>
+      </c>
+      <c r="M11" s="7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75">
+      <c r="L12" t="s">
+        <v>241</v>
+      </c>
+      <c r="M12" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75">
+      <c r="L13" t="s">
+        <v>257</v>
+      </c>
+      <c r="M13" s="7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75">
+      <c r="L14" t="s">
+        <v>231</v>
+      </c>
+      <c r="M14" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75">
+      <c r="L15" t="s">
+        <v>207</v>
+      </c>
+      <c r="M15" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75">
+      <c r="L16" t="s">
+        <v>193</v>
+      </c>
+      <c r="M16" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="12:13" ht="15.75">
+      <c r="L17" t="s">
+        <v>239</v>
+      </c>
+      <c r="M17" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="12:13" ht="15.75">
+      <c r="L18" t="s">
+        <v>239</v>
+      </c>
+      <c r="M18" s="7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="12:13" ht="15.75">
+      <c r="L19" t="s">
+        <v>259</v>
+      </c>
+      <c r="M19" s="7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="12:13" ht="15.75">
+      <c r="L20" t="s">
+        <v>185</v>
+      </c>
+      <c r="M20" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="12:13" ht="15.75">
+      <c r="L21" t="s">
+        <v>166</v>
+      </c>
+      <c r="M21" s="9">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="L2:M21">
+    <sortCondition ref="L1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3980,10 +4236,407 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E21" sqref="A2:E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <f>LOOKUP(C2,ORDER!$L$2:$L$21,ORDER!$M$2:$M$21)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <f>LOOKUP(C3,ORDER!$L$2:$L$21,ORDER!$M$2:$M$21)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <f>LOOKUP(C4,ORDER!$L$2:$L$21,ORDER!$M$2:$M$21)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f>LOOKUP(C5,ORDER!$L$2:$L$21,ORDER!$M$2:$M$21)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <f>LOOKUP(C6,ORDER!$L$2:$L$21,ORDER!$M$2:$M$21)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <f>LOOKUP(C7,ORDER!$L$2:$L$21,ORDER!$M$2:$M$21)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <f>LOOKUP(C8,ORDER!$L$2:$L$21,ORDER!$M$2:$M$21)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <f>LOOKUP(C9,ORDER!$L$2:$L$21,ORDER!$M$2:$M$21)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f>LOOKUP(C10,ORDER!$L$2:$L$21,ORDER!$M$2:$M$21)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>257</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <f>LOOKUP(C11,ORDER!$L$2:$L$21,ORDER!$M$2:$M$21)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <f>LOOKUP(C12,ORDER!$L$2:$L$21,ORDER!$M$2:$M$21)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <f>LOOKUP(C13,ORDER!$L$2:$L$21,ORDER!$M$2:$M$21)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <f>LOOKUP(C14,ORDER!$L$2:$L$21,ORDER!$M$2:$M$21)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <f>LOOKUP(C15,ORDER!$L$2:$L$21,ORDER!$M$2:$M$21)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>212</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <f>LOOKUP(C16,ORDER!$L$2:$L$21,ORDER!$M$2:$M$21)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>220</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <f>LOOKUP(C17,ORDER!$L$2:$L$21,ORDER!$M$2:$M$21)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>231</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <f>LOOKUP(C18,ORDER!$L$2:$L$21,ORDER!$M$2:$M$21)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>239</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <f>LOOKUP(C19,ORDER!$L$2:$L$21,ORDER!$M$2:$M$21)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>241</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <f>LOOKUP(C20,ORDER!$L$2:$L$21,ORDER!$M$2:$M$21)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <f>LOOKUP(C21,ORDER!$L$2:$L$21,ORDER!$M$2:$M$21)</f>
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4018,7 +4671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R31"/>
   <sheetViews>
@@ -5904,7 +6557,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -5949,7 +6602,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
@@ -6133,7 +6786,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -6224,58 +6877,4 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="A2:B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75">
-      <c r="A1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="B2:B4">
-    <sortCondition ref="B2"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>